--- a/biology/Histoire de la zoologie et de la botanique/John_West_Wells/John_West_Wells.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/John_West_Wells/John_West_Wells.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">John West Wells est un paléontologue américain, né le 15 juillet 1907 à Philadelphie et mort le 12 janvier 1994 à Ithaca (État de New York).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il passe sa jeunesse à Homer (New York) et commence des études de médecine à l’université de Pittsburgh. Il les interrompt pour s’orienter vers la chimie. C’est durant ses cours de géologie qu’il commence à se passionner pour cette discipline, notamment sous l’influence de son professeur Henry Leighton (1884-1963). Il reçoit son Bachelor of Sciences en 1928. Il obtient un poste à l’université du Texas comme instructeur en géologie. Il commence à s’intéresser également à la paléontologie. Il obtient son Master of Arts à l’université Cornell en 1930. Il poursuit par un doctorat sous la direction de Gilbert Dennison Harris (1864-1952). Il se marie avec une étudiante en géologie, Elizabeth Baker en 1932. Après l’obtention de son doctorat l’année suivante, une bourse lui permet d’étudier les collections du musée d'histoire naturelle de Londres, à l'époque appelé officiellement British Museum (Natural History), du Muséum national d'histoire naturelle à Paris et du musée d'histoire naturelle de Berlin. À son retour aux États-Unis d'Amérique, il entreprend une collaboration avec Thomas Wayland Vaughan (1870-1952) de Washington qui aboutira à la publication en 1943 d’une révision des Scleractinia. Il part en 1938 pour l’université d'État de l'Ohio et où il commence à s’intéresser à l’histoire de la géologie. En 1948, il part pour Cornell où il achèvera sa carrière.
 </t>
@@ -542,7 +556,9 @@
           <t>Liste partielle des publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1933 : Corals of the Cretaceous of the Atlantic and Gulf coastal plains and western interior of the United States (Ithaca).
 1937 : Some fossil corals form the West Indies (Washington).
@@ -578,7 +594,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) Biographie de la National Academy of Sciences</t>
         </is>
